--- a/meta/4-c-1.xlsx
+++ b/meta/4-c-1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Press\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\open-sdg-data-starter-develop\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07C349E-8B3B-4A21-8F3B-E4203D4CD09A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="47880" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4.с.1" sheetId="1" r:id="rId1"/>
@@ -24,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
-  <si>
-    <t>www.uis.unesco.org</t>
-  </si>
-  <si>
-    <t>URL:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>8. Ссылки и документация</t>
   </si>
@@ -168,11 +163,14 @@
   <si>
     <t xml:space="preserve">Цель </t>
   </si>
+  <si>
+    <t>URL: www.uis.unesco.org</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -340,9 +338,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -354,9 +349,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -383,10 +375,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка 2" xfId="1"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -663,253 +661,243 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Z66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="AI26" sqref="AI26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="61.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="0.140625" customWidth="1"/>
-    <col min="4" max="23" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="126.5703125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="48.83984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="61.15625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="0.15625" customWidth="1"/>
+    <col min="4" max="23" width="9.15625" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="126.578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:26" ht="48.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="70.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="43.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:26" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:26" ht="127.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="11"/>
+    </row>
+    <row r="15" spans="1:26" ht="93" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z15" s="9"/>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z17" s="9"/>
+    </row>
+    <row r="18" spans="1:26" ht="216.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="5"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="8"/>
+    </row>
+    <row r="21" spans="1:26" ht="140.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" spans="1:26" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="6"/>
-    </row>
-    <row r="3" spans="1:26" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="6"/>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="6"/>
-    </row>
-    <row r="13" spans="1:26" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="13"/>
-    </row>
-    <row r="15" spans="1:26" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z15" s="11"/>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="6"/>
-    </row>
-    <row r="17" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z17" s="11"/>
-    </row>
-    <row r="18" spans="1:26" ht="216.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="6"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="9"/>
-    </row>
-    <row r="21" spans="1:26" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="6"/>
-    </row>
-    <row r="24" spans="1:26" ht="90" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="8"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="4"/>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F66" s="3"/>
-      <c r="K66" s="1"/>
+    </row>
+    <row r="64" spans="6:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="F64" s="3"/>
+      <c r="K64" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1"/>
-    <hyperlink ref="B11" r:id="rId2"/>
+    <hyperlink ref="B9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B11" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId3"/>

--- a/meta/4-c-1.xlsx
+++ b/meta/4-c-1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ЦУР Open Data\Метаданные в Excel для Платформы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Метаданные  ЦУР в Excel для Платформы\Метаданные на русском\Глобальные\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28665" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Пример" sheetId="2" r:id="rId1"/>
@@ -110,9 +110,6 @@
     <t>4.c. К 2030 году значительно увеличить число квалифицированных учителей, в том числе посредством международного сотрудничества в подготовке учителей в развивающихся странах, особенно в наименее развитых странах и малых островных развивающихся государствах</t>
   </si>
   <si>
-    <t>4.c.1. Доля учителей в: a) дошкольных учреждениях, b) начальной школе, c) младшей средней школе и d) старшей средней школе, прошедших до начала или во время работы, по меньшей мере, минимальную организованную профессиональную учительскую подготовку (например, педагогическую) на соответствующем уровне в данной стране</t>
-  </si>
-  <si>
     <t>Национальный статистический комитет КР
 (Отдел социальной статистики)</t>
   </si>
@@ -124,9 +121,6 @@
   </si>
   <si>
     <t>(0312) 32 46 52</t>
-  </si>
-  <si>
-    <t>www.stat.kg</t>
   </si>
   <si>
     <t>Количество учителей, прошедших до начала или во время работы, по меньшей мере, минимальную организованную профессиональную учительскую подготовку, в процентах от всех учителей в соответствующих образовательных учреждениях</t>
@@ -161,17 +155,37 @@
 n =численность учителей, имеющих высшее и средне-специальное образование
 N =общее численность учителей в данном учебном году.</t>
   </si>
+  <si>
+    <t>www.stat.gov.kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.c.1 Доля учителей, обладающих минимальными
+требуемыми квалификациями для преподавания, в
+разбивке по образовательному уровню учреждения
+a) в дошкольных образовательных организациях
+b) в начальной школе (1-4 класс), 
+c) в основной школе (5-9 класс) и d) средней школе (10-11 класс)
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -238,25 +252,33 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -543,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,12 +598,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>28</v>
+      <c r="B4" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -595,7 +617,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -603,7 +625,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -611,7 +633,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -619,15 +641,15 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>33</v>
+      <c r="B10" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -641,7 +663,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -649,7 +671,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -657,7 +679,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -671,7 +693,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="63" customHeight="1" x14ac:dyDescent="0.25">
@@ -679,7 +701,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -693,7 +715,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -725,7 +747,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -739,7 +761,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/meta/4-c-1.xlsx
+++ b/meta/4-c-1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Метаданные  ЦУР в Excel для Платформы\Метаданные на русском\Глобальные\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Working\413\Метаданные для показателей ЦУР\соц\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28665" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Пример" sheetId="2" r:id="rId1"/>
@@ -132,20 +132,12 @@
     <t>Учителя играют ключевую роль в обеспечении качества предоставляемого образования. В идеале, все учителя должны получать адекватную, соответствующую и своевременную педагогическую подготовку для осуществления педагогической деятельности на выбранном уровне образования и быть высококвалифицированными специалистами по предмету (предметам), который они должны преподавать. Этот показатель измеряет долю учебной рабочей силы, которая является педагогически хорошо подготовленной.</t>
   </si>
   <si>
-    <t>Источниками информации для расчета показателя является ежегодные данные государственной статистической отчетности, представляемой дошкольными организациями республики по форме «Отчет дошкольной организации», а также общеобразовательными организациями республики по форме ОШ-1 «Отчет дневной общеобразовательной школы на начало учебного года».</t>
-  </si>
-  <si>
     <t>Метод статистического наблюдения- сплошное наблюдения на основе годовой статистической отчетности
 Объектом статистического наблюдения являются учителя с высшим и средне-специальным образованием.
 Единицами наблюдения являются дошкольные организации, общеобразовательные организации (школы).</t>
   </si>
   <si>
     <t>Дезагрегация показателей осуществляется по территории, типу местности, формам собственности.</t>
-  </si>
-  <si>
-    <t>https://sustainabledevelopment-kyrgyzstan.github.io
-www.uis.unesco.org 
-Закон Кыргызской Республики от 30 апреля 2003 года №92 «Об образовании»</t>
   </si>
   <si>
     <t>Метод расчета: Численность учителей, имеющих высшее и средне-специальное профессиональное образование, следует разделить на общее численность учителей в данном учебном году и умножить на 100.
@@ -167,17 +159,33 @@
 c) в основной школе (5-9 класс) и d) средней школе (10-11 класс)
 </t>
   </si>
+  <si>
+    <t>Источниками информации для расчета показателя является ежегодные данные официальной статистической отчетности, представляемой дошкольными организациями республики по форме «Отчет дошкольной организации», а также общеобразовательными организациями республики по форме ОШ-1 «Отчет дневной общеобразовательной школы на начало учебного года».</t>
+  </si>
+  <si>
+    <t>https://sustainabledevelopment-kyrgyzstan.github.io
+www.uis.unesco.org 
+Закон Кыргызской Республики от августа 2023 года №179 «Об образовании»</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -252,30 +260,34 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -565,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,7 +615,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -649,7 +661,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -692,8 +704,8 @@
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>35</v>
+      <c r="B16" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="63" customHeight="1" x14ac:dyDescent="0.25">
@@ -701,7 +713,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -715,7 +727,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -747,7 +759,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -760,8 +772,8 @@
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>38</v>
+      <c r="B26" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
